--- a/federal_news_headings_Demo.xlsx
+++ b/federal_news_headings_Demo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J233"/>
+  <dimension ref="A1:J245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -541,17 +541,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DOC</t>
+          <t>NTIA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>03/29/2023</t>
+          <t>12/16/2022</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>New York</t>
+          <t>clg</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -561,22 +561,22 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Treasury Department Announces New York’s Capital Projects Fund Award, Connecting 100,000 Low-Income ...more</t>
+          <t>Biden-Harris Administration Announces More Than $18.5 Million in Internet for All Grants to Five Min...more</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Treasury Department Announces New York’s Capital Projects Fund Award, Connecting 100,000 Low-Income Housing Units to Affordable, High-Speed Internet As Part of President Biden’s Investing in America Agenda</t>
+          <t>Biden-Harris Administration Announces More Than $18.5 Million in Internet for All Grants to Five Minority-Serving Colleges and Universities</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>internet</t>
+          <t>grant</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://home.treasury.gov/news/press-releases/jy1374</t>
+          <t>https://ntia.gov/press-release/2022/biden-harris-administration-announces-more-185-million-internet-all-grants-five</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -596,12 +596,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>12/16/2022</t>
+          <t>12/19/2022</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>clg</t>
+          <t>Michigan</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -611,22 +611,22 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces More Than $18.5 Million in Internet for All Grants to Five Min...more</t>
+          <t>Biden-Harris Administration Awards More Than $6.3 Million to Michigan in ‘Internet for All’ Planning...more</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces More Than $18.5 Million in Internet for All Grants to Five Minority-Serving Colleges and Universities</t>
+          <t>Biden-Harris Administration Awards More Than $6.3 Million to Michigan in ‘Internet for All’ Planning Grants</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>grant</t>
+          <t>internet</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://ntia.gov/press-release/2022/biden-harris-administration-announces-more-185-million-internet-all-grants-five</t>
+          <t>https://ntia.gov/press-release/2022/biden-harris-administration-awards-more-63-million-michigan-internet-all</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Michigan</t>
+          <t>Tribal</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -661,22 +661,22 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Awards More Than $6.3 Million to Michigan in ‘Internet for All’ Planning...more</t>
+          <t>Biden-Harris Administration Announces More Than $36 Million in High-Speed Internet Grants for Tribal...more</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Awards More Than $6.3 Million to Michigan in ‘Internet for All’ Planning Grants</t>
+          <t>Biden-Harris Administration Announces More Than $36 Million in High-Speed Internet Grants for Tribal Lands</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>internet</t>
+          <t>grant</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://ntia.gov/press-release/2022/biden-harris-administration-awards-more-63-million-michigan-internet-all</t>
+          <t>https://ntia.gov/press-release/2022/biden-harris-administration-announces-more-36-million-high-speed-internet-grants</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -696,12 +696,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>12/19/2022</t>
+          <t>12/20/2022</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Tribal</t>
+          <t>Illinois</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -711,22 +711,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces More Than $36 Million in High-Speed Internet Grants for Tribal...more</t>
+          <t>Biden-Harris Administration Awards More Than $6.5 Million to Illinois in ‘Internet for All’ Planning...more</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces More Than $36 Million in High-Speed Internet Grants for Tribal Lands</t>
+          <t>Biden-Harris Administration Awards More Than $6.5 Million to Illinois in ‘Internet for All’ Planning Grants</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>grant</t>
+          <t>internet</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://ntia.gov/press-release/2022/biden-harris-administration-announces-more-36-million-high-speed-internet-grants</t>
+          <t>https://ntia.gov/press-release/2022/biden-harris-administration-awards-more-65-million-illinois-internet-all</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -751,7 +751,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Illinois</t>
+          <t>Indiana</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -761,22 +761,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Awards More Than $6.5 Million to Illinois in ‘Internet for All’ Planning...more</t>
+          <t>Biden-Harris Administration Awards More Than $5.8 Million to Indiana in ‘Internet for All’ Planning ...more</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Awards More Than $6.5 Million to Illinois in ‘Internet for All’ Planning Grants</t>
+          <t>Biden-Harris Administration Awards More Than $5.8 Million to Indiana in ‘Internet for All’ Planning Grants</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>internet</t>
+          <t>grant</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://ntia.gov/press-release/2022/biden-harris-administration-awards-more-65-million-illinois-internet-all</t>
+          <t>https://ntia.gov/press-release/2022/biden-harris-administration-awards-more-58-million-indiana-internet-all-planning</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -801,7 +801,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Indiana</t>
+          <t>Oklahoma</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Awards More Than $5.8 Million to Indiana in ‘Internet for All’ Planning ...more</t>
+          <t>Biden-Harris Administration Awards More Than $5.8 Million to Oklahoma in ‘Internet for All’ Planning...more</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Awards More Than $5.8 Million to Indiana in ‘Internet for All’ Planning Grants</t>
+          <t>Biden-Harris Administration Awards More Than $5.8 Million to Oklahoma in ‘Internet for All’ Planning Grants</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -826,7 +826,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://ntia.gov/press-release/2022/biden-harris-administration-awards-more-58-million-indiana-internet-all-planning</t>
+          <t>https://ntia.gov/press-release/2022/biden-harris-administration-awards-more-58-million-oklahoma-internet-all</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Oklahoma</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -861,22 +861,22 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Awards More Than $5.8 Million to Oklahoma in ‘Internet for All’ Planning...more</t>
+          <t>Biden-Harris Administration Awards More Than $6 Million to New Jersey in ‘Internet for All’ Planning...more</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Awards More Than $5.8 Million to Oklahoma in ‘Internet for All’ Planning Grants</t>
+          <t>Biden-Harris Administration Awards More Than $6 Million to New Jersey in ‘Internet for All’ Planning Grants</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>grant</t>
+          <t>internet</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://ntia.gov/press-release/2022/biden-harris-administration-awards-more-58-million-oklahoma-internet-all</t>
+          <t>https://ntia.gov/press-release/2022/biden-harris-administration-awards-more-6-million-new-jersey-internet-all</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -901,7 +901,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>New Jersey</t>
+          <t>Nevada</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -911,12 +911,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Awards More Than $6 Million to New Jersey in ‘Internet for All’ Planning...more</t>
+          <t>Biden-Harris Administration Awards More Than $5.7 Million to Nevada in ‘Internet for All’ Planning G...more</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Awards More Than $6 Million to New Jersey in ‘Internet for All’ Planning Grants</t>
+          <t>Biden-Harris Administration Awards More Than $5.7 Million to Nevada in ‘Internet for All’ Planning Grants</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://ntia.gov/press-release/2022/biden-harris-administration-awards-more-6-million-new-jersey-internet-all</t>
+          <t>https://ntia.gov/press-release/2022/biden-harris-administration-awards-more-57-million-nevada-internet-all-planning</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Nevada</t>
+          <t>Wyoming</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -961,12 +961,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Awards More Than $5.7 Million to Nevada in ‘Internet for All’ Planning G...more</t>
+          <t>Biden-Harris Administration Awards More Than $5.4 Million to Wyoming in ‘Internet for All’ Planning ...more</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Awards More Than $5.7 Million to Nevada in ‘Internet for All’ Planning Grants</t>
+          <t>Biden-Harris Administration Awards More Than $5.4 Million to Wyoming in ‘Internet for All’ Planning Grants</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -976,7 +976,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://ntia.gov/press-release/2022/biden-harris-administration-awards-more-57-million-nevada-internet-all-planning</t>
+          <t>https://ntia.gov/press-release/2022/biden-harris-administration-awards-more-54-million-wyoming-internet-all-planning</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1001,7 +1001,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Wyoming</t>
+          <t>New Hampshire</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1011,22 +1011,22 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Awards More Than $5.4 Million to Wyoming in ‘Internet for All’ Planning ...more</t>
+          <t>Biden-Harris Administration Awards More Than $5.5 Million to New Hampshire in ‘Internet for All’ Pla...more</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Awards More Than $5.4 Million to Wyoming in ‘Internet for All’ Planning Grants</t>
+          <t>Biden-Harris Administration Awards More Than $5.5 Million to New Hampshire in ‘Internet for All’ Planning Grants</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>internet</t>
+          <t>grant</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://ntia.gov/press-release/2022/biden-harris-administration-awards-more-54-million-wyoming-internet-all-planning</t>
+          <t>https://ntia.gov/press-release/2022/biden-harris-administration-awards-more-55-million-new-hampshire-internet-all</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1046,12 +1046,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>12/20/2022</t>
+          <t>12/23/2022</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>New Hampshire</t>
+          <t>Massachusetts</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1061,12 +1061,12 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Awards More Than $5.5 Million to New Hampshire in ‘Internet for All’ Pla...more</t>
+          <t>Biden-Harris Administration Awards More Than $6 Million to Massachusetts in ‘Internet for All’ Plann...more</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Awards More Than $5.5 Million to New Hampshire in ‘Internet for All’ Planning Grants</t>
+          <t>Biden-Harris Administration Awards More Than $6 Million to Massachusetts in ‘Internet for All’ Planning Grants</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1076,7 +1076,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://ntia.gov/press-release/2022/biden-harris-administration-awards-more-55-million-new-hampshire-internet-all</t>
+          <t>https://ntia.gov/press-release/2022/biden-harris-administration-awards-more-6-million-massachusetts-internet-all</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1096,14 +1096,10 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>12/23/2022</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Massachusetts</t>
-        </is>
-      </c>
+          <t>01/31/2023</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
           <t>03/30/2023</t>
@@ -1111,12 +1107,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Awards More Than $6 Million to Massachusetts in ‘Internet for All’ Plann...more</t>
+          <t>Biden-Harris Administration Announces $500,000 in High-Speed Internet Grant to Passamaquoddy at Plea...more</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Awards More Than $6 Million to Massachusetts in ‘Internet for All’ Planning Grants</t>
+          <t>Biden-Harris Administration Announces $500,000 in High-Speed Internet Grant to Passamaquoddy at Pleasant Point</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1126,7 +1122,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://ntia.gov/press-release/2022/biden-harris-administration-awards-more-6-million-massachusetts-internet-all</t>
+          <t>https://ntia.gov/press-release/2023/biden-harris-administration-announces-500000-high-speed-internet-grant</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1141,17 +1137,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>USDA</t>
+          <t>NTIA</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>02/16/2023</t>
+          <t>03/23/2023</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Illinois</t>
+          <t>Minnesota</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1161,12 +1157,12 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Invests $63 Million in High-Speed Internet for People in Rural Illinois,...more</t>
+          <t>Biden-Harris Administration Announces More Than $25.7 Million in High-Speed Internet Grants to Triba...more</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Invests $63 Million in High-Speed Internet for People in Rural Illinois, Michigan, Minnesota and Mississippi</t>
+          <t>Biden-Harris Administration Announces More Than $25.7 Million in High-Speed Internet Grants to Tribal Lands in Minnesota and New Mexico</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1176,7 +1172,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://www.usda.gov/media/press-releases/2023/02/16/biden-harris-administration-invests-63-million-high-speed-internet</t>
+          <t>https://ntia.gov/press-release/2023/biden-harris-administration-announces-more-257-million-high-speed-internet</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1191,17 +1187,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>USDA</t>
+          <t>NTIA</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>02/16/2023</t>
+          <t>03/23/2023</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Michigan</t>
+          <t>New Mexico</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1211,12 +1207,12 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Invests $63 Million in High-Speed Internet for People in Rural Illinois,...more</t>
+          <t>Biden-Harris Administration Announces More Than $25.7 Million in High-Speed Internet Grants to Triba...more</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Invests $63 Million in High-Speed Internet for People in Rural Illinois, Michigan, Minnesota and Mississippi</t>
+          <t>Biden-Harris Administration Announces More Than $25.7 Million in High-Speed Internet Grants to Tribal Lands in Minnesota and New Mexico</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1226,7 +1222,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://www.usda.gov/media/press-releases/2023/02/16/biden-harris-administration-invests-63-million-high-speed-internet</t>
+          <t>https://ntia.gov/press-release/2023/biden-harris-administration-announces-more-257-million-high-speed-internet</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1237,21 +1233,21 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>USDA</t>
+          <t>Internet for All</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>02/16/2023</t>
+          <t>12/20/2022</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Minnesota</t>
+          <t>Texas</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1261,22 +1257,22 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Invests $63 Million in High-Speed Internet for People in Rural Illinois,...more</t>
+          <t>Biden-Harris Administration Awards More Than $8.1 Million to Texas in ‘Internet for All’ Planning Gr...more</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Invests $63 Million in High-Speed Internet for People in Rural Illinois, Michigan, Minnesota and Mississippi</t>
+          <t>Biden-Harris Administration Awards More Than $8.1 Million to Texas in ‘Internet for All’ Planning Grants</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>internet</t>
+          <t>grant</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://www.usda.gov/media/press-releases/2023/02/16/biden-harris-administration-invests-63-million-high-speed-internet</t>
+          <t>https://www.internet4all.gov/news-media/biden-harris-administration-awards-more-81-million-texas-internet-all-planning-grants</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1287,21 +1283,21 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>USDA</t>
+          <t>Internet for All</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>02/16/2023</t>
+          <t>12/20/2022</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Mississippi</t>
+          <t>Vermont</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1311,12 +1307,12 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Invests $63 Million in High-Speed Internet for People in Rural Illinois,...more</t>
+          <t>Biden-Harris Administration Awards More Than $5.5 Million to Vermont in ‘Internet for All’ Planning ...more</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Invests $63 Million in High-Speed Internet for People in Rural Illinois, Michigan, Minnesota and Mississippi</t>
+          <t>Biden-Harris Administration Awards More Than $5.5 Million to Vermont in ‘Internet for All’ Planning Grants</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1326,7 +1322,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://www.usda.gov/media/press-releases/2023/02/16/biden-harris-administration-invests-63-million-high-speed-internet</t>
+          <t>https://www.internet4all.gov/news-media/biden-harris-administration-awards-more-55-million-vermont-internet-all-planning-grants</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1337,21 +1333,21 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>NTIA</t>
+          <t>Internet for All</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>03/23/2023</t>
+          <t>12/20/2022</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Minnesota</t>
+          <t>California</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1361,22 +1357,22 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces More Than $25.7 Million in High-Speed Internet Grants to Triba...more</t>
+          <t>Biden-Harris Administration Awards Nearly $9 Million to California in ‘Internet for All’ Planning Gr...more</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces More Than $25.7 Million in High-Speed Internet Grants to Tribal Lands in Minnesota and New Mexico</t>
+          <t>Biden-Harris Administration Awards Nearly $9 Million to California in ‘Internet for All’ Planning Grants</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>internet</t>
+          <t>grant</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://ntia.gov/press-release/2023/biden-harris-administration-announces-more-257-million-high-speed-internet</t>
+          <t>https://www.internet4all.gov/news-media/biden-harris-administration-awards-nearly-9-million-california-internet-all-planning</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1387,21 +1383,21 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>NTIA</t>
+          <t>Internet for All</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>03/23/2023</t>
+          <t>12/20/2022</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>New Mexico</t>
+          <t>Oregon</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1411,12 +1407,12 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces More Than $25.7 Million in High-Speed Internet Grants to Triba...more</t>
+          <t>Biden-Harris Administration Awards More Than $5.7 Million to Oregon in ‘Internet for All’ Planning G...more</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces More Than $25.7 Million in High-Speed Internet Grants to Tribal Lands in Minnesota and New Mexico</t>
+          <t>Biden-Harris Administration Awards More Than $5.7 Million to Oregon in ‘Internet for All’ Planning Grants</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1426,7 +1422,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://ntia.gov/press-release/2023/biden-harris-administration-announces-more-257-million-high-speed-internet</t>
+          <t>https://www.internet4all.gov/news-media/biden-harris-administration-awards-more-57-million-oregon-internet-all-planning-grants</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1437,19 +1433,23 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>NTIA</t>
+          <t>Internet for All</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>01/31/2023</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
+          <t>12/22/2022</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>New Mexico</t>
+        </is>
+      </c>
       <c r="E21" t="inlineStr">
         <is>
           <t>03/30/2023</t>
@@ -1457,12 +1457,12 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $500,000 in High-Speed Internet Grant to Passamaquoddy at Plea...more</t>
+          <t>Biden-Harris Administration Awards More Than $5.7 Million to New Mexico in ‘Internet for All’ Planni...more</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $500,000 in High-Speed Internet Grant to Passamaquoddy at Pleasant Point</t>
+          <t>Biden-Harris Administration Awards More Than $5.7 Million to New Mexico in ‘Internet for All’ Planning Grants</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1472,7 +1472,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://ntia.gov/press-release/2023/biden-harris-administration-announces-500000-high-speed-internet-grant</t>
+          <t>https://www.internet4all.gov/news-media/biden-harris-administration-awards-more-57-million-new-mexico-internet-all-planning</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1483,25 +1483,234 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>Internet for All</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>12/22/2022</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Kansas</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>03/30/2023</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Biden-Harris Administration Awards Nearly $5.7 Million to Kansas in ‘Internet for All’ Planning Gran...more</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Biden-Harris Administration Awards Nearly $5.7 Million to Kansas in ‘Internet for All’ Planning Grants</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>internet</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>https://www.internet4all.gov/news-media/biden-harris-administration-awards-nearly-57-million-kansas-internet-all-planning-grants</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Relevant</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Internet for All</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>01/30/2023</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>clg</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>03/30/2023</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Biden-Harris Administration Announces More Than $33.5 Million in Internet for All Grants to 12 Minor...more</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Biden-Harris Administration Announces More Than $33.5 Million in Internet for All Grants to 12 Minority-Serving Colleges and Universities</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>internet</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-more-335-million-internet-all-grants-12-minority</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Relevant</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Internet for All</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>02/27/2023</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>clg</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>03/30/2023</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Biden-Harris Administration Announces More Than $175 Million in Internet for All Grants to 61 Minori...more</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Biden-Harris Administration Announces More Than $175 Million in Internet for All Grants to 61 Minority-Serving Colleges and Universities</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>grant</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-more-175-million-internet-all-grants-61-minority</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Relevant</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
           <t>Broadband Money</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>12/21/2022</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>California</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>03/30/2023</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>California receives nearly $9M for BEAD funding and digital equity planning
+BEAD
+Broadband Funding
+C...more</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>California receives nearly $9M for BEAD funding and digital equity planning
+BEAD
+Broadband Funding
+California
+December 21, 2022
+California receives an additional $9 million for Broadband Equity, Access, and Deployment Program (BEAD) program grant funding and digital equity
+Broadband.money</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>grant</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>https://broadband.money/blog-categories/bead</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Relevant</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Broadband Money</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
         <is>
           <t>01/17/2023</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr">
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
         <is>
           <t>03/30/2023</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>Introducing: Where's the Funding?
 Broadband Funding
@@ -1511,7 +1720,7 @@
 If you're ap...more</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>Introducing: Where's the Funding?
 Broadband Funding
@@ -1522,223 +1731,14 @@
 Jase Wilson</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>rural broadband</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>https://broadband.money/blog-categories/broadband-funding</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>Relevant</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>18</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Broadband Money</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>12/21/2022</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>California</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>03/30/2023</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>California receives nearly $9M for BEAD funding and digital equity planning
-BEAD
-Broadband Funding
-C...more</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>California receives nearly $9M for BEAD funding and digital equity planning
-BEAD
-Broadband Funding
-California
-December 21, 2022
-California receives an additional $9 million for Broadband Equity, Access, and Deployment Program (BEAD) program grant funding and digital equity
-Broadband.money</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>grant</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>https://broadband.money/blog-categories/bead</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>Relevant</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>19</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Internet for All</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>01/30/2023</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>clg</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>03/30/2023</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Biden-Harris Administration Announces More Than $33.5 Million in Internet for All Grants to 12 Minor...more</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>Biden-Harris Administration Announces More Than $33.5 Million in Internet for All Grants to 12 Minority-Serving Colleges and Universities</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>internet</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-more-335-million-internet-all-grants-12-minority</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>Relevant</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>20</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Internet for All</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>12/22/2022</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Kansas</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>03/30/2023</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Biden-Harris Administration Awards Nearly $5.7 Million to Kansas in ‘Internet for All’ Planning Gran...more</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>Biden-Harris Administration Awards Nearly $5.7 Million to Kansas in ‘Internet for All’ Planning Grants</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>internet</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>https://www.internet4all.gov/news-media/biden-harris-administration-awards-nearly-57-million-kansas-internet-all-planning-grants</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>Relevant</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>21</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Internet for All</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>02/27/2023</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>clg</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>03/30/2023</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Biden-Harris Administration Announces More Than $175 Million in Internet for All Grants to 61 Minori...more</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>Biden-Harris Administration Announces More Than $175 Million in Internet for All Grants to 61 Minority-Serving Colleges and Universities</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>grant</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-more-175-million-internet-all-grants-61-minority</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1749,21 +1749,21 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Internet for All</t>
+          <t>DOC</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>12/20/2022</t>
+          <t>03/29/2023</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Oregon</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1773,12 +1773,12 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Awards More Than $5.7 Million to Oregon in ‘Internet for All’ Planning G...more</t>
+          <t>Treasury Department Announces New York’s Capital Projects Fund Award, Connecting 100,000 Low-Income ...more</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Awards More Than $5.7 Million to Oregon in ‘Internet for All’ Planning Grants</t>
+          <t>Treasury Department Announces New York’s Capital Projects Fund Award, Connecting 100,000 Low-Income Housing Units to Affordable, High-Speed Internet As Part of President Biden’s Investing in America Agenda</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1788,7 +1788,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/biden-harris-administration-awards-more-57-million-oregon-internet-all-planning-grants</t>
+          <t>https://home.treasury.gov/news/press-releases/jy1374</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1799,21 +1799,21 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Internet for All</t>
+          <t>USDA</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>12/20/2022</t>
+          <t>02/16/2023</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>California</t>
+          <t>Illinois</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1823,22 +1823,22 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Awards Nearly $9 Million to California in ‘Internet for All’ Planning Gr...more</t>
+          <t>Biden-Harris Administration Invests $63 Million in High-Speed Internet for People in Rural Illinois,...more</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Awards Nearly $9 Million to California in ‘Internet for All’ Planning Grants</t>
+          <t>Biden-Harris Administration Invests $63 Million in High-Speed Internet for People in Rural Illinois, Michigan, Minnesota and Mississippi</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>grant</t>
+          <t>internet</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/biden-harris-administration-awards-nearly-9-million-california-internet-all-planning</t>
+          <t>https://www.usda.gov/media/press-releases/2023/02/16/biden-harris-administration-invests-63-million-high-speed-internet</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1849,21 +1849,21 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Internet for All</t>
+          <t>USDA</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>12/20/2022</t>
+          <t>02/16/2023</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Vermont</t>
+          <t>Michigan</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1873,12 +1873,12 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Awards More Than $5.5 Million to Vermont in ‘Internet for All’ Planning ...more</t>
+          <t>Biden-Harris Administration Invests $63 Million in High-Speed Internet for People in Rural Illinois,...more</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Awards More Than $5.5 Million to Vermont in ‘Internet for All’ Planning Grants</t>
+          <t>Biden-Harris Administration Invests $63 Million in High-Speed Internet for People in Rural Illinois, Michigan, Minnesota and Mississippi</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1888,7 +1888,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/biden-harris-administration-awards-more-55-million-vermont-internet-all-planning-grants</t>
+          <t>https://www.usda.gov/media/press-releases/2023/02/16/biden-harris-administration-invests-63-million-high-speed-internet</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1899,21 +1899,21 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Internet for All</t>
+          <t>USDA</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>12/20/2022</t>
+          <t>02/16/2023</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Texas</t>
+          <t>Minnesota</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1923,22 +1923,22 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Awards More Than $8.1 Million to Texas in ‘Internet for All’ Planning Gr...more</t>
+          <t>Biden-Harris Administration Invests $63 Million in High-Speed Internet for People in Rural Illinois,...more</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Awards More Than $8.1 Million to Texas in ‘Internet for All’ Planning Grants</t>
+          <t>Biden-Harris Administration Invests $63 Million in High-Speed Internet for People in Rural Illinois, Michigan, Minnesota and Mississippi</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>grant</t>
+          <t>internet</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/biden-harris-administration-awards-more-81-million-texas-internet-all-planning-grants</t>
+          <t>https://www.usda.gov/media/press-releases/2023/02/16/biden-harris-administration-invests-63-million-high-speed-internet</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1953,17 +1953,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Internet for All</t>
+          <t>USDA</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>12/22/2022</t>
+          <t>02/16/2023</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>New Mexico</t>
+          <t>Mississippi</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1973,22 +1973,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Awards More Than $5.7 Million to New Mexico in ‘Internet for All’ Planni...more</t>
+          <t>Biden-Harris Administration Invests $63 Million in High-Speed Internet for People in Rural Illinois,...more</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Awards More Than $5.7 Million to New Mexico in ‘Internet for All’ Planning Grants</t>
+          <t>Biden-Harris Administration Invests $63 Million in High-Speed Internet for People in Rural Illinois, Michigan, Minnesota and Mississippi</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>grant</t>
+          <t>internet</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/biden-harris-administration-awards-more-57-million-new-mexico-internet-all-planning</t>
+          <t>https://www.usda.gov/media/press-releases/2023/02/16/biden-harris-administration-invests-63-million-high-speed-internet</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -2529,19 +2529,15 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>NTIA</t>
+          <t>NCTA</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>05/16/2023</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>American Samoa</t>
-        </is>
-      </c>
+          <t>05/18/2023</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
           <t>05/23/2023</t>
@@ -2549,22 +2545,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Awards Nearly $1.4 Million to American Samoa in ‘Internet for All’ Plann...more</t>
+          <t>America’s Expanding Cable Broadband Networks: Central U.S.</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Awards Nearly $1.4 Million to American Samoa in ‘Internet for All’ Planning Grants</t>
+          <t>America’s Expanding Cable Broadband Networks: Central U.S.</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>grant</t>
+          <t>broadband</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://ntia.gov/press-release/2023/biden-harris-administration-awards-nearly-14-million-american-samoa-internet-all</t>
+          <t>https://www.ncta.com/whats-new/americas-expanding-cable-broadband-networks-central-us</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2589,7 +2585,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Northern Mariana Islands</t>
+          <t>American Samoa</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2599,22 +2595,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Awards $1.4 Million to the Northern Mariana Islands in ‘Internet for All...more</t>
+          <t>Biden-Harris Administration Awards Nearly $1.4 Million to American Samoa in ‘Internet for All’ Plann...more</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Awards $1.4 Million to the Northern Mariana Islands in ‘Internet for All’ Planning Grants</t>
+          <t>Biden-Harris Administration Awards Nearly $1.4 Million to American Samoa in ‘Internet for All’ Planning Grants</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>internet</t>
+          <t>grant</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://ntia.gov/press-release/2023/biden-harris-administration-awards-14-million-northern-mariana-islands-internet</t>
+          <t>https://ntia.gov/press-release/2023/biden-harris-administration-awards-nearly-14-million-american-samoa-internet-all</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2629,15 +2625,19 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>NCTA</t>
+          <t>NTIA</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>05/18/2023</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr"/>
+          <t>05/16/2023</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Northern Mariana Islands</t>
+        </is>
+      </c>
       <c r="E45" t="inlineStr">
         <is>
           <t>05/23/2023</t>
@@ -2645,22 +2645,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>America’s Expanding Cable Broadband Networks: Central U.S.</t>
+          <t>Biden-Harris Administration Awards $1.4 Million to the Northern Mariana Islands in ‘Internet for All...more</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>America’s Expanding Cable Broadband Networks: Central U.S.</t>
+          <t>Biden-Harris Administration Awards $1.4 Million to the Northern Mariana Islands in ‘Internet for All’ Planning Grants</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>broadband</t>
+          <t>internet</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://www.ncta.com/whats-new/americas-expanding-cable-broadband-networks-central-us</t>
+          <t>https://ntia.gov/press-release/2023/biden-harris-administration-awards-14-million-northern-mariana-islands-internet</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2680,12 +2680,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>05/17/2023</t>
+          <t>05/16/2023</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Virgin Islands</t>
+          <t>Guam</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2695,12 +2695,12 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Awards $150,000 to U.S. Virgin Islands for Digital Equity Planning Grant</t>
+          <t>Biden-Harris Administration Awards $1.4 Million to Guam in ‘Internet for All’ Planning Grants</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Awards $150,000 to U.S. Virgin Islands for Digital Equity Planning Grant</t>
+          <t>Biden-Harris Administration Awards $1.4 Million to Guam in ‘Internet for All’ Planning Grants</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2710,7 +2710,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/biden-harris-administration-awards-150000-us-virgin-islands-digital-equity-planning-0</t>
+          <t>https://www.internet4all.gov/news-media/biden-harris-administration-awards-14-million-guam-internet-all-planning-grants</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2735,7 +2735,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Tribal</t>
+          <t>Virgin Islands</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2745,22 +2745,22 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces Nearly $5 Million in Internet for All Grants to Tribal Lands</t>
+          <t>Biden-Harris Administration Awards $150,000 to U.S. Virgin Islands for Digital Equity Planning Grant</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces Nearly $5 Million in Internet for All Grants to Tribal Lands</t>
+          <t>Biden-Harris Administration Awards $150,000 to U.S. Virgin Islands for Digital Equity Planning Grant</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>internet</t>
+          <t>grant</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-nearly-5-million-internet-all-grants-tribal-lands</t>
+          <t>https://www.internet4all.gov/news-media/biden-harris-administration-awards-150000-us-virgin-islands-digital-equity-planning-0</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2780,12 +2780,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>05/16/2023</t>
+          <t>05/17/2023</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Guam</t>
+          <t>Tribal</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2795,22 +2795,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Awards $1.4 Million to Guam in ‘Internet for All’ Planning Grants</t>
+          <t>Biden-Harris Administration Announces Nearly $5 Million in Internet for All Grants to Tribal Lands</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Awards $1.4 Million to Guam in ‘Internet for All’ Planning Grants</t>
+          <t>Biden-Harris Administration Announces Nearly $5 Million in Internet for All Grants to Tribal Lands</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>grant</t>
+          <t>internet</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/biden-harris-administration-awards-14-million-guam-internet-all-planning-grants</t>
+          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-nearly-5-million-internet-all-grants-tribal-lands</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -3414,12 +3414,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>06/26/2023</t>
+          <t>06/30/2023</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Georgia</t>
+          <t>Nevada</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3429,12 +3429,12 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $1.3 Billion to Georgia to Deploy High-Speed Internet Infrastr...more</t>
+          <t>Biden-Harris Administration Announces $416.7 Million to Nevada for High-Speed Internet Infrastructur...more</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $1.3 Billion to Georgia to Deploy High-Speed Internet Infrastructure</t>
+          <t>Biden-Harris Administration Announces $416.7 Million to Nevada for High-Speed Internet Infrastructure</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3444,7 +3444,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-13-billion-georgia-deploy-high-speed-internet</t>
+          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-4167-million-nevada-high-speed-internet-0</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3469,7 +3469,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Texas</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3479,12 +3479,12 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $3.3 Billion to Texas for High-Speed Internet Infrastructure</t>
+          <t>Biden-Harris Administration Announces $1.3 Billion to Georgia to Deploy High-Speed Internet Infrastr...more</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $3.3 Billion to Texas for High-Speed Internet Infrastructure</t>
+          <t>Biden-Harris Administration Announces $1.3 Billion to Georgia to Deploy High-Speed Internet Infrastructure</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3494,7 +3494,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-33-billion-texas-high-speed-internet</t>
+          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-13-billion-georgia-deploy-high-speed-internet</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3869,7 +3869,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Delaware</t>
+          <t>New Mexico</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3879,12 +3879,12 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $108 Million to Delaware to Deploy High-Speed Internet Infrast...more</t>
+          <t>Biden-Harris Administration Announces $675.4 Million to New Mexico for High-Speed Internet Infrastru...more</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $108 Million to Delaware to Deploy High-Speed Internet Infrastructure</t>
+          <t>Biden-Harris Administration Announces $675.4 Million to New Mexico for High-Speed Internet Infrastructure</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3894,7 +3894,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-108-million-delaware-deploy-high-speed-internet</t>
+          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-6754-million-new-mexico-high-speed-internet</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3919,7 +3919,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>New Mexico</t>
+          <t>Missouri</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3929,12 +3929,12 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $675.4 Million to New Mexico for High-Speed Internet Infrastru...more</t>
+          <t>Biden-Harris Administration Announces $1.7 Billion to Missouri to Deploy High-Speed Internet Infrast...more</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $675.4 Million to New Mexico for High-Speed Internet Infrastructure</t>
+          <t>Biden-Harris Administration Announces $1.7 Billion to Missouri to Deploy High-Speed Internet Infrastructure</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3944,7 +3944,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-6754-million-new-mexico-high-speed-internet</t>
+          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-17-billion-missouri-deploy-high-speed-internet</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -4469,7 +4469,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Missouri</t>
+          <t>Virginia</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4479,12 +4479,12 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $1.7 Billion to Missouri to Deploy High-Speed Internet Infrast...more</t>
+          <t>Biden-Harris Administration Announces $1.4 Billion to Virginia for High-Speed Internet Infrastructur...more</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $1.7 Billion to Missouri to Deploy High-Speed Internet Infrastructure</t>
+          <t>Biden-Harris Administration Announces $1.4 Billion to Virginia for High-Speed Internet Infrastructure</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -4494,7 +4494,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-17-billion-missouri-deploy-high-speed-internet</t>
+          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-14-billion-virginia-high-speed-internet</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4519,7 +4519,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Wisconsin</t>
+          <t>Delaware</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4529,22 +4529,22 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $1.1 Billion to Wisconsin for High-Speed Internet Infrastructu...more</t>
+          <t>Biden-Harris Administration Announces $108 Million to Delaware to Deploy High-Speed Internet Infrast...more</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $1.1 Billion to Wisconsin for High-Speed Internet Infrastructure</t>
+          <t>Biden-Harris Administration Announces $108 Million to Delaware to Deploy High-Speed Internet Infrastructure</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>grant</t>
+          <t>internet</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-11-billion-wisconsin-high-speed-internet</t>
+          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-108-million-delaware-deploy-high-speed-internet</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4569,7 +4569,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Virginia</t>
+          <t>Texas</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4579,12 +4579,12 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $1.4 Billion to Virginia for High-Speed Internet Infrastructur...more</t>
+          <t>Biden-Harris Administration Announces $3.3 Billion to Texas for High-Speed Internet Infrastructure</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $1.4 Billion to Virginia for High-Speed Internet Infrastructure</t>
+          <t>Biden-Harris Administration Announces $3.3 Billion to Texas for High-Speed Internet Infrastructure</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -4594,7 +4594,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-14-billion-virginia-high-speed-internet</t>
+          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-33-billion-texas-high-speed-internet</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4614,12 +4614,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>06/30/2023</t>
+          <t>06/26/2023</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Puerto Rico</t>
+          <t>California</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4629,12 +4629,12 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $334.6 Million to Puerto Rico for High-Speed Internet Infrastr...more</t>
+          <t>Biden-Harris Administration Announces More Than $1.8 Billion to California to Deploy High-Speed Inte...more</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $334.6 Million to Puerto Rico for High-Speed Internet Infrastructure</t>
+          <t>Biden-Harris Administration Announces More Than $1.8 Billion to California to Deploy High-Speed Internet Infrastructure</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -4644,7 +4644,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-3346-million-puerto-rico-high-speed-internet-0</t>
+          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-more-18-billion-california-deploy-high-speed</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4669,7 +4669,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Nevada</t>
+          <t>Virgin Islands</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4679,12 +4679,12 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $416.7 Million to Nevada for High-Speed Internet Infrastructur...more</t>
+          <t>Biden-Harris Administration Announces $27 Million to U.S. Virgin Islands for High-Speed Internet Inf...more</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $416.7 Million to Nevada for High-Speed Internet Infrastructure</t>
+          <t>Biden-Harris Administration Announces $27 Million to U.S. Virgin Islands for High-Speed Internet Infrastructure</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4694,7 +4694,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-4167-million-nevada-high-speed-internet-0</t>
+          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-27-million-us-virgin-islands-high-speed-internet-0</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4719,7 +4719,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Virgin Islands</t>
+          <t>Virginia</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4729,12 +4729,12 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $27 Million to U.S. Virgin Islands for High-Speed Internet Inf...more</t>
+          <t>Biden-Harris Administration Announces $1.2 Billion to West Virginia for High-Speed Internet Infrastr...more</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $27 Million to U.S. Virgin Islands for High-Speed Internet Infrastructure</t>
+          <t>Biden-Harris Administration Announces $1.2 Billion to West Virginia for High-Speed Internet Infrastructure</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-27-million-us-virgin-islands-high-speed-internet-0</t>
+          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-12-billion-west-virginia-high-speed-internet-0</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4755,7 +4755,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Virginia</t>
+          <t>West Virginia</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4819,7 +4819,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>West Virginia</t>
+          <t>Vermont</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -4829,12 +4829,12 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $1.2 Billion to West Virginia for High-Speed Internet Infrastr...more</t>
+          <t>Biden-Harris Administration Announces $229 Million to Vermont for High-Speed Internet Infrastructure</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $1.2 Billion to West Virginia for High-Speed Internet Infrastructure</t>
+          <t>Biden-Harris Administration Announces $229 Million to Vermont for High-Speed Internet Infrastructure</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4844,7 +4844,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-12-billion-west-virginia-high-speed-internet-0</t>
+          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-229-million-vermont-high-speed-internet-0</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4869,7 +4869,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Vermont</t>
+          <t>Tennessee</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -4879,12 +4879,12 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $229 Million to Vermont for High-Speed Internet Infrastructure</t>
+          <t>Biden-Harris Administration Announces $813.3 Million to Tennessee for High-Speed Internet Infrastruc...more</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $229 Million to Vermont for High-Speed Internet Infrastructure</t>
+          <t>Biden-Harris Administration Announces $813.3 Million to Tennessee for High-Speed Internet Infrastructure</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4894,7 +4894,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-229-million-vermont-high-speed-internet-0</t>
+          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-8133-million-tennessee-high-speed-internet-0</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4919,7 +4919,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Tennessee</t>
+          <t>Rhode Island</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4929,12 +4929,12 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $813.3 Million to Tennessee for High-Speed Internet Infrastruc...more</t>
+          <t>Biden-Harris Administration Announces $108.7 Million to Rhode Island for High-Speed Internet Infrast...more</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $813.3 Million to Tennessee for High-Speed Internet Infrastructure</t>
+          <t>Biden-Harris Administration Announces $108.7 Million to Rhode Island for High-Speed Internet Infrastructure</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4944,7 +4944,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-8133-million-tennessee-high-speed-internet-0</t>
+          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-1087-million-rhode-island-high-speed-internet-0</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4969,7 +4969,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Rhode Island</t>
+          <t>Oklahoma</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -4979,12 +4979,12 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $108.7 Million to Rhode Island for High-Speed Internet Infrast...more</t>
+          <t>Biden-Harris Administration Announces $797.4 Million to Oklahoma for High-Speed Internet Infrastruct...more</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $108.7 Million to Rhode Island for High-Speed Internet Infrastructure</t>
+          <t>Biden-Harris Administration Announces $797.4 Million to Oklahoma for High-Speed Internet Infrastructure</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4994,7 +4994,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-1087-million-rhode-island-high-speed-internet-0</t>
+          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-7974-million-oklahoma-high-speed-internet-0</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -5014,12 +5014,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>06/30/2023</t>
+          <t>06/26/2023</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Oklahoma</t>
+          <t>Wisconsin</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -5029,22 +5029,22 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $797.4 Million to Oklahoma for High-Speed Internet Infrastruct...more</t>
+          <t>Biden-Harris Administration Announces $1.1 Billion to Wisconsin for High-Speed Internet Infrastructu...more</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $797.4 Million to Oklahoma for High-Speed Internet Infrastructure</t>
+          <t>Biden-Harris Administration Announces $1.1 Billion to Wisconsin for High-Speed Internet Infrastructure</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>internet</t>
+          <t>grant</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-7974-million-oklahoma-high-speed-internet-0</t>
+          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-11-billion-wisconsin-high-speed-internet</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -5069,7 +5069,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>North Carolina</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -5079,12 +5079,12 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $1.5 Billion to North Carolina for High-Speed Internet Infrast...more</t>
+          <t>Biden-Harris Administration Announces $263.7 Million to New Jersey for High-Speed Internet Infrastru...more</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $1.5 Billion to North Carolina for High-Speed Internet Infrastructure</t>
+          <t>Biden-Harris Administration Announces $263.7 Million to New Jersey for High-Speed Internet Infrastructure</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -5094,7 +5094,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-15-billion-north-carolina-high-speed-internet-0</t>
+          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-2637-million-new-jersey-high-speed-internet-0</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -5114,12 +5114,12 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>06/26/2023</t>
+          <t>06/30/2023</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>California</t>
+          <t>Nebraska</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -5129,12 +5129,12 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces More Than $1.8 Billion to California to Deploy High-Speed Inte...more</t>
+          <t>Biden-Harris Administration Announces $405.3 Million to Nebraska for High-Speed Internet Infrastruct...more</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces More Than $1.8 Billion to California to Deploy High-Speed Internet Infrastructure</t>
+          <t>Biden-Harris Administration Announces $405.3 Million to Nebraska for High-Speed Internet Infrastructure</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -5144,7 +5144,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-more-18-billion-california-deploy-high-speed</t>
+          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-4053-million-nebraska-high-speed-internet-0</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -5169,7 +5169,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Nebraska</t>
+          <t>Northern Mariana Islands</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -5179,12 +5179,12 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $405.3 Million to Nebraska for High-Speed Internet Infrastruct...more</t>
+          <t>Biden-Harris Administration Announces $80.8 Million to Northern Mariana Islands for High-Speed Inter...more</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $405.3 Million to Nebraska for High-Speed Internet Infrastructure</t>
+          <t>Biden-Harris Administration Announces $80.8 Million to Northern Mariana Islands for High-Speed Internet Infrastructure</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -5194,7 +5194,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-4053-million-nebraska-high-speed-internet-0</t>
+          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-808-million-northern-mariana-islands-high-speed-0</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -5219,7 +5219,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>New Jersey</t>
+          <t>North Carolina</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -5229,12 +5229,12 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $263.7 Million to New Jersey for High-Speed Internet Infrastru...more</t>
+          <t>Biden-Harris Administration Announces $1.5 Billion to North Carolina for High-Speed Internet Infrast...more</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $263.7 Million to New Jersey for High-Speed Internet Infrastructure</t>
+          <t>Biden-Harris Administration Announces $1.5 Billion to North Carolina for High-Speed Internet Infrastructure</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -5244,7 +5244,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-2637-million-new-jersey-high-speed-internet-0</t>
+          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-15-billion-north-carolina-high-speed-internet-0</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5269,7 +5269,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Wyoming</t>
+          <t>Washington</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -5279,12 +5279,12 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $347.9 Million to Wyoming for High-Speed Internet Infrastructu...more</t>
+          <t>Biden-Harris Administration Announces $1.2 Billion to Washington for High-Speed Internet Infrastruct...more</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $347.9 Million to Wyoming for High-Speed Internet Infrastructure</t>
+          <t>Biden-Harris Administration Announces $1.2 Billion to Washington for High-Speed Internet Infrastructure</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -5294,7 +5294,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-3479-million-wyoming-high-speed-internet-0</t>
+          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-12-billion-washington-high-speed-internet-0</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5319,7 +5319,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Washington</t>
+          <t>Wyoming</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -5329,12 +5329,12 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $1.2 Billion to Washington for High-Speed Internet Infrastruct...more</t>
+          <t>Biden-Harris Administration Announces $347.9 Million to Wyoming for High-Speed Internet Infrastructu...more</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $1.2 Billion to Washington for High-Speed Internet Infrastructure</t>
+          <t>Biden-Harris Administration Announces $347.9 Million to Wyoming for High-Speed Internet Infrastructure</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -5344,7 +5344,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-12-billion-washington-high-speed-internet-0</t>
+          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-3479-million-wyoming-high-speed-internet-0</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5369,7 +5369,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Utah</t>
+          <t>Montana</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -5379,12 +5379,12 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $317.4 Million to Utah for High-Speed Internet Infrastructure</t>
+          <t>Biden-Harris Administration Announces $629 Million to Montana for High-Speed Internet Infrastructure</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $317.4 Million to Utah for High-Speed Internet Infrastructure</t>
+          <t>Biden-Harris Administration Announces $629 Million to Montana for High-Speed Internet Infrastructure</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -5394,7 +5394,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-3174-million-utah-high-speed-internet-0</t>
+          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-629-million-montana-high-speed-internet-0</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5419,7 +5419,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>South Dakota</t>
+          <t>New Hampshire</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -5429,12 +5429,12 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $207.2 Million to South Dakota for High-Speed Internet Infrast...more</t>
+          <t>Biden-Harris Administration Announces $197 Million to New Hampshire for High-Speed Internet Infrastr...more</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $207.2 Million to South Dakota for High-Speed Internet Infrastructure</t>
+          <t>Biden-Harris Administration Announces $197 Million to New Hampshire for High-Speed Internet Infrastructure</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -5444,7 +5444,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-2072-million-south-dakota-high-speed-internet-0</t>
+          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-197-million-new-hampshire-high-speed-internet-0</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5469,7 +5469,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Pennsylvania</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -5479,12 +5479,12 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $1.1 Billion to Pennsylvania for High-Speed Internet Infrastru...more</t>
+          <t>Biden-Harris Administration Announces $664.6 Million to New York for High-Speed Internet Infrastruct...more</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $1.1 Billion to Pennsylvania for High-Speed Internet Infrastructure</t>
+          <t>Biden-Harris Administration Announces $664.6 Million to New York for High-Speed Internet Infrastructure</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -5494,7 +5494,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-11-billion-pennsylvania-high-speed-internet-0</t>
+          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-6646-million-new-york-high-speed-internet-0</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5519,7 +5519,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Ohio</t>
+          <t>Puerto Rico</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -5529,12 +5529,12 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $793.7 Million to Ohio for High-Speed Internet Infrastructure</t>
+          <t>Biden-Harris Administration Announces $334.6 Million to Puerto Rico for High-Speed Internet Infrastr...more</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $793.7 Million to Ohio for High-Speed Internet Infrastructure</t>
+          <t>Biden-Harris Administration Announces $334.6 Million to Puerto Rico for High-Speed Internet Infrastructure</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -5544,7 +5544,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-7937-million-ohio-high-speed-internet-0</t>
+          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-3346-million-puerto-rico-high-speed-internet-0</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5569,7 +5569,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>New York</t>
+          <t>Pennsylvania</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -5579,12 +5579,12 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $664.6 Million to New York for High-Speed Internet Infrastruct...more</t>
+          <t>Biden-Harris Administration Announces $1.1 Billion to Pennsylvania for High-Speed Internet Infrastru...more</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $664.6 Million to New York for High-Speed Internet Infrastructure</t>
+          <t>Biden-Harris Administration Announces $1.1 Billion to Pennsylvania for High-Speed Internet Infrastructure</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -5594,7 +5594,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-6646-million-new-york-high-speed-internet-0</t>
+          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-11-billion-pennsylvania-high-speed-internet-0</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5619,7 +5619,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>New Hampshire</t>
+          <t>South Dakota</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -5629,12 +5629,12 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $197 Million to New Hampshire for High-Speed Internet Infrastr...more</t>
+          <t>Biden-Harris Administration Announces $207.2 Million to South Dakota for High-Speed Internet Infrast...more</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $197 Million to New Hampshire for High-Speed Internet Infrastructure</t>
+          <t>Biden-Harris Administration Announces $207.2 Million to South Dakota for High-Speed Internet Infrastructure</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -5644,7 +5644,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-197-million-new-hampshire-high-speed-internet-0</t>
+          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-2072-million-south-dakota-high-speed-internet-0</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5669,7 +5669,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Montana</t>
+          <t>Utah</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -5679,12 +5679,12 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $629 Million to Montana for High-Speed Internet Infrastructure</t>
+          <t>Biden-Harris Administration Announces $317.4 Million to Utah for High-Speed Internet Infrastructure</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $629 Million to Montana for High-Speed Internet Infrastructure</t>
+          <t>Biden-Harris Administration Announces $317.4 Million to Utah for High-Speed Internet Infrastructure</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -5694,7 +5694,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-629-million-montana-high-speed-internet-0</t>
+          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-3174-million-utah-high-speed-internet-0</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5719,7 +5719,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Northern Mariana Islands</t>
+          <t>Ohio</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -5729,12 +5729,12 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $80.8 Million to Northern Mariana Islands for High-Speed Inter...more</t>
+          <t>Biden-Harris Administration Announces $793.7 Million to Ohio for High-Speed Internet Infrastructure</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $80.8 Million to Northern Mariana Islands for High-Speed Internet Infrastructure</t>
+          <t>Biden-Harris Administration Announces $793.7 Million to Ohio for High-Speed Internet Infrastructure</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -5744,7 +5744,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-808-million-northern-mariana-islands-high-speed-0</t>
+          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-7937-million-ohio-high-speed-internet-0</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5969,7 +5969,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Iowa</t>
+          <t>Idaho</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -5979,12 +5979,12 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $415.3 Million to Iowa to Deploy High-Speed Internet Infrastru...more</t>
+          <t>Biden-Harris Administration Announces $583.3 Million to Idaho to Deploy High-Speed Internet Infrastr...more</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $415.3 Million to Iowa to Deploy High-Speed Internet Infrastructure</t>
+          <t>Biden-Harris Administration Announces $583.3 Million to Idaho to Deploy High-Speed Internet Infrastructure</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -5994,7 +5994,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-4153-million-iowa-deploy-high-speed-internet</t>
+          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-5833-million-idaho-deploy-high-speed-internet</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -6019,7 +6019,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Idaho</t>
+          <t>Connecticut</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -6029,12 +6029,12 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $583.3 Million to Idaho to Deploy High-Speed Internet Infrastr...more</t>
+          <t>Biden-Harris Administration Announces $144.2 Million to Connecticut to Deploy High-Speed Internet In...more</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $583.3 Million to Idaho to Deploy High-Speed Internet Infrastructure</t>
+          <t>Biden-Harris Administration Announces $144.2 Million to Connecticut to Deploy High-Speed Internet Infrastructure</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -6044,7 +6044,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-5833-million-idaho-deploy-high-speed-internet</t>
+          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-1442-million-connecticut-deploy-high-speed</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -6069,7 +6069,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Connecticut</t>
+          <t>Alaska</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -6079,12 +6079,12 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $144.2 Million to Connecticut to Deploy High-Speed Internet In...more</t>
+          <t>Biden-Harris Administration Announces $1 Billion to Alaska to Deploy High-Speed Internet Infrastruct...more</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $144.2 Million to Connecticut to Deploy High-Speed Internet Infrastructure</t>
+          <t>Biden-Harris Administration Announces $1 Billion to Alaska to Deploy High-Speed Internet Infrastructure</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -6094,7 +6094,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-1442-million-connecticut-deploy-high-speed</t>
+          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-1-billion-alaska-deploy-high-speed-internet</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -6119,7 +6119,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Alaska</t>
+          <t>Florida</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -6129,12 +6129,12 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $1 Billion to Alaska to Deploy High-Speed Internet Infrastruct...more</t>
+          <t>Biden-Harris Administration Announces More Than $1.1 Billion to Florida to Deploy High-Speed Interne...more</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $1 Billion to Alaska to Deploy High-Speed Internet Infrastructure</t>
+          <t>Biden-Harris Administration Announces More Than $1.1 Billion to Florida to Deploy High-Speed Internet Infrastructure</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -6144,7 +6144,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-1-billion-alaska-deploy-high-speed-internet</t>
+          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-more-11-billion-florida-deploy-high-speed-internet</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -6169,7 +6169,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Florida</t>
+          <t>Iowa</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -6179,12 +6179,12 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces More Than $1.1 Billion to Florida to Deploy High-Speed Interne...more</t>
+          <t>Biden-Harris Administration Announces $415.3 Million to Iowa to Deploy High-Speed Internet Infrastru...more</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces More Than $1.1 Billion to Florida to Deploy High-Speed Internet Infrastructure</t>
+          <t>Biden-Harris Administration Announces $415.3 Million to Iowa to Deploy High-Speed Internet Infrastructure</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -6194,7 +6194,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-more-11-billion-florida-deploy-high-speed-internet</t>
+          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-4153-million-iowa-deploy-high-speed-internet</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -6214,7 +6214,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>07/27/2023</t>
+          <t>07/20/2023</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -6229,12 +6229,12 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces Nearly $1 Billion in New Internet for All Funding Available to...more</t>
+          <t>Biden-Harris Administration Announces Nearly $4 Million in Internet for All Grants to Tribal Lands</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces Nearly $1 Billion in New Internet for All Funding Available to Tribal Lands</t>
+          <t>Biden-Harris Administration Announces Nearly $4 Million in Internet for All Grants to Tribal Lands</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -6244,7 +6244,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-nearly-1-billion-new-internet-all-funding</t>
+          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-nearly-4-million-internet-all-grants-tribal-lands</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -6264,7 +6264,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>07/20/2023</t>
+          <t>07/27/2023</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -6279,12 +6279,12 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces Nearly $4 Million in Internet for All Grants to Tribal Lands</t>
+          <t>Biden-Harris Administration Announces Nearly $1 Billion in New Internet for All Funding Available to...more</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces Nearly $4 Million in Internet for All Grants to Tribal Lands</t>
+          <t>Biden-Harris Administration Announces Nearly $1 Billion in New Internet for All Funding Available to Tribal Lands</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -6294,7 +6294,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-nearly-4-million-internet-all-grants-tribal-lands</t>
+          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-nearly-1-billion-new-internet-all-funding</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -7203,19 +7203,15 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Internet for All</t>
+          <t>Broadband Money</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>12/15/2023</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>Louisiana</t>
-        </is>
-      </c>
+          <t>12/14/2023</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr"/>
       <c r="E138" t="inlineStr">
         <is>
           <t>12/18/2023</t>
@@ -7223,22 +7219,22 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Approves Louisiana’s “Internet for All” Initial Proposal</t>
+          <t>The biggest broadband news of 2023? Hint: It's all about BEAD</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Approves Louisiana’s “Internet for All” Initial Proposal</t>
+          <t>The biggest broadband news of 2023? Hint: It's all about BEAD</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>internet</t>
+          <t>broadband</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/biden-harris-administration-approves-louisianas-internet-all-initial-proposal</t>
+          <t>https://broadband.money/blog/the-biggest-broadband-news-of-2023-hint-its-all-about-bead</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7253,15 +7249,19 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Broadband Money</t>
+          <t>Internet for All</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>12/14/2023</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr"/>
+          <t>12/15/2023</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Louisiana</t>
+        </is>
+      </c>
       <c r="E139" t="inlineStr">
         <is>
           <t>12/18/2023</t>
@@ -7269,22 +7269,22 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>The biggest broadband news of 2023? Hint: It's all about BEAD</t>
+          <t>Biden-Harris Administration Approves Louisiana’s “Internet for All” Initial Proposal</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>The biggest broadband news of 2023? Hint: It's all about BEAD</t>
+          <t>Biden-Harris Administration Approves Louisiana’s “Internet for All” Initial Proposal</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>broadband</t>
+          <t>internet</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://broadband.money/blog/the-biggest-broadband-news-of-2023-hint-its-all-about-bead</t>
+          <t>https://www.internet4all.gov/news-media/biden-harris-administration-approves-louisianas-internet-all-initial-proposal</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7684,12 +7684,12 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>03/28/2024</t>
+          <t>04/02/2024</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Nevada</t>
+          <t>Vermont</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -7699,22 +7699,22 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Nevada’s Digital Equity Plan Accepted</t>
+          <t>Vermont’s Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>Nevada’s Digital Equity Plan Accepted</t>
+          <t>Vermont’s Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Digital Equity</t>
+          <t>Digital Equity Plan</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/nevadas-digital-equity-plan-accepted</t>
+          <t>https://www.internet4all.gov/news-media/vermonts-digital-equity-plan-accepted</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7739,7 +7739,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Vermont</t>
+          <t>Missouri</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -7749,22 +7749,22 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Vermont’s Digital Equity Plan Accepted</t>
+          <t>Missouri's Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>Vermont’s Digital Equity Plan Accepted</t>
+          <t>Missouri's Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Digital Equity Plan</t>
+          <t>Digital Equity</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/vermonts-digital-equity-plan-accepted</t>
+          <t>https://www.internet4all.gov/news-media/missouris-digital-equity-plan-accepted</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7789,7 +7789,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Missouri</t>
+          <t>Ohio</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -7799,12 +7799,12 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Missouri's Digital Equity Plan Accepted</t>
+          <t>Ohio’s Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>Missouri's Digital Equity Plan Accepted</t>
+          <t>Ohio’s Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -7814,7 +7814,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/missouris-digital-equity-plan-accepted</t>
+          <t>https://www.internet4all.gov/news-media/ohios-digital-equity-plan-accepted</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7839,7 +7839,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Ohio</t>
+          <t>California</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -7849,12 +7849,12 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Ohio’s Digital Equity Plan Accepted</t>
+          <t>California's Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>Ohio’s Digital Equity Plan Accepted</t>
+          <t>California's Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/ohios-digital-equity-plan-accepted</t>
+          <t>https://www.internet4all.gov/news-media/californias-digital-equity-plan-accepted</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7884,12 +7884,12 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>04/02/2024</t>
+          <t>03/26/2024</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Texas</t>
+          <t>Montana</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -7899,22 +7899,22 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Texas’ Digital Equity Plan Accepted</t>
+          <t>Montana’s Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>Texas’ Digital Equity Plan Accepted</t>
+          <t>Montana’s Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Digital Equity</t>
+          <t>Digital Equity Plan</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/texas-digital-equity-plan-accepted</t>
+          <t>https://www.internet4all.gov/news-media/montanas-digital-equity-plan-accepted</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7939,7 +7939,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>District of Columbia</t>
+          <t>Texas</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -7949,22 +7949,22 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>District of Columbia’s Digital Equity Plan Accepted</t>
+          <t>Texas’ Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>District of Columbia’s Digital Equity Plan Accepted</t>
+          <t>Texas’ Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Digital Equity Plan</t>
+          <t>Digital Equity</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/district-columbias-digital-equity-plan-accepted</t>
+          <t>https://www.internet4all.gov/news-media/texas-digital-equity-plan-accepted</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -8034,12 +8034,12 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>03/26/2024</t>
+          <t>03/28/2024</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Montana</t>
+          <t>Nevada</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -8049,22 +8049,22 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Montana’s Digital Equity Plan Accepted</t>
+          <t>Nevada’s Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>Montana’s Digital Equity Plan Accepted</t>
+          <t>Nevada’s Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Digital Equity Plan</t>
+          <t>Digital Equity</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/montanas-digital-equity-plan-accepted</t>
+          <t>https://www.internet4all.gov/news-media/nevadas-digital-equity-plan-accepted</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -8089,7 +8089,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>California</t>
+          <t>Nebraska</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -8099,22 +8099,22 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>California's Digital Equity Plan Accepted</t>
+          <t>Nebraska's Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>California's Digital Equity Plan Accepted</t>
+          <t>Nebraska's Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Digital Equity</t>
+          <t>Digital Equity Plan</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/californias-digital-equity-plan-accepted</t>
+          <t>https://www.internet4all.gov/news-media/nebraskas-digital-equity-plan-accepted</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -8134,12 +8134,12 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>03/26/2024</t>
+          <t>04/02/2024</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Washington</t>
+          <t>District of Columbia</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -8149,12 +8149,12 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Washington’s Digital Equity Plan Accepted</t>
+          <t>District of Columbia’s Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>Washington’s Digital Equity Plan Accepted</t>
+          <t>District of Columbia’s Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -8164,7 +8164,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/washingtons-digital-equity-plan-accepted</t>
+          <t>https://www.internet4all.gov/news-media/district-columbias-digital-equity-plan-accepted</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -8184,12 +8184,12 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>04/02/2024</t>
+          <t>03/28/2024</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Nebraska</t>
+          <t>Minnesota</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -8199,22 +8199,22 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Nebraska's Digital Equity Plan Accepted</t>
+          <t>Minnesota's Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>Nebraska's Digital Equity Plan Accepted</t>
+          <t>Minnesota's Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Digital Equity Plan</t>
+          <t>Digital Equity</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/nebraskas-digital-equity-plan-accepted</t>
+          <t>https://www.internet4all.gov/news-media/minnesotas-digital-equity-plan-accepted</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -8234,12 +8234,12 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>04/02/2024</t>
+          <t>03/28/2024</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Oklahoma</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -8249,12 +8249,12 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Oklahoma’s Digital Equity Plan Accepted</t>
+          <t>Georgia's Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>Oklahoma’s Digital Equity Plan Accepted</t>
+          <t>Georgia's Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -8264,7 +8264,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/oklahomas-digital-equity-plan-accepted</t>
+          <t>https://www.internet4all.gov/news-media/georgias-digital-equity-plan-accepted</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8284,12 +8284,12 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>03/28/2024</t>
+          <t>04/02/2024</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Arkansas</t>
+          <t>Oklahoma</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -8299,12 +8299,12 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Arkansas’ Digital Equity Plan Accepted</t>
+          <t>Oklahoma’s Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>Arkansas’ Digital Equity Plan Accepted</t>
+          <t>Oklahoma’s Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -8314,7 +8314,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/arkansas-digital-equity-plan-accepted</t>
+          <t>https://www.internet4all.gov/news-media/oklahomas-digital-equity-plan-accepted</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8325,7 +8325,7 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Kansas</t>
+          <t>Arkansas</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -8384,12 +8384,12 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>03/26/2024</t>
+          <t>03/28/2024</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Pennsylvania</t>
+          <t>Kansas</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -8399,22 +8399,22 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Pennsylvania’s Digital Equity Plan Accepted</t>
+          <t>Arkansas’ Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>Pennsylvania’s Digital Equity Plan Accepted</t>
+          <t>Arkansas’ Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Digital Equity</t>
+          <t>Digital Equity Plan</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/pennsylvanias-digital-equity-plan-accepted</t>
+          <t>https://www.internet4all.gov/news-media/arkansas-digital-equity-plan-accepted</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8434,12 +8434,12 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>03/28/2024</t>
+          <t>03/26/2024</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Connecticut</t>
+          <t>Pennsylvania</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -8449,22 +8449,22 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Connecticut’s Digital Equity Plan Accepted</t>
+          <t>Pennsylvania’s Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>Connecticut’s Digital Equity Plan Accepted</t>
+          <t>Pennsylvania’s Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Digital Equity Plan</t>
+          <t>Digital Equity</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/connecticuts-digital-equity-plan-accepted</t>
+          <t>https://www.internet4all.gov/news-media/pennsylvanias-digital-equity-plan-accepted</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8489,7 +8489,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Tennessee</t>
+          <t>Connecticut</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -8499,12 +8499,12 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Tennessee’s Digital Equity Plan Accepted</t>
+          <t>Connecticut’s Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>Tennessee’s Digital Equity Plan Accepted</t>
+          <t>Connecticut’s Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
@@ -8514,7 +8514,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/tennessees-digital-equity-plan-accepted</t>
+          <t>https://www.internet4all.gov/news-media/connecticuts-digital-equity-plan-accepted</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8534,12 +8534,12 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>03/26/2024</t>
+          <t>03/28/2024</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Massachusetts</t>
+          <t>Tennessee</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -8549,12 +8549,12 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Massachusetts’ Digital Equity Plan Accepted</t>
+          <t>Tennessee’s Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>Massachusetts’ Digital Equity Plan Accepted</t>
+          <t>Tennessee’s Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
@@ -8564,7 +8564,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/massachusetts-digital-equity-plan-accepted</t>
+          <t>https://www.internet4all.gov/news-media/tennessees-digital-equity-plan-accepted</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8589,7 +8589,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>North Carolina</t>
+          <t>Massachusetts</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -8599,12 +8599,12 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>North Carolina’s Digital Equity Plan Accepted</t>
+          <t>Massachusetts’ Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>North Carolina’s Digital Equity Plan Accepted</t>
+          <t>Massachusetts’ Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
@@ -8614,7 +8614,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/north-carolinas-digital-equity-plan-accepted</t>
+          <t>https://www.internet4all.gov/news-media/massachusetts-digital-equity-plan-accepted</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8639,7 +8639,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Hawaii</t>
+          <t>North Carolina</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -8649,22 +8649,22 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Hawaii’s Digital Equity Plan Accepted</t>
+          <t>North Carolina’s Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>Hawaii’s Digital Equity Plan Accepted</t>
+          <t>North Carolina’s Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Digital Equity</t>
+          <t>Digital Equity Plan</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/hawaiis-digital-equity-plan-accepted</t>
+          <t>https://www.internet4all.gov/news-media/north-carolinas-digital-equity-plan-accepted</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8689,7 +8689,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Florida</t>
+          <t>Hawaii</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -8699,12 +8699,12 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Florida’s Digital Equity Plan Accepted</t>
+          <t>Hawaii’s Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>Florida’s Digital Equity Plan Accepted</t>
+          <t>Hawaii’s Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -8714,7 +8714,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/floridas-digital-equity-plan-accepted</t>
+          <t>https://www.internet4all.gov/news-media/hawaiis-digital-equity-plan-accepted</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8739,7 +8739,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>New Jersey</t>
+          <t>Florida</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -8749,12 +8749,12 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>New Jersey’s Digital Equity Plan Accepted</t>
+          <t>Florida’s Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>New Jersey’s Digital Equity Plan Accepted</t>
+          <t>Florida’s Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -8764,7 +8764,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/new-jerseys-digital-equity-plan-accepted</t>
+          <t>https://www.internet4all.gov/news-media/floridas-digital-equity-plan-accepted</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8789,7 +8789,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Rhode Island</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -8799,22 +8799,22 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Rhode Island’s Digital Equity Plan Accepted</t>
+          <t>New Jersey’s Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>Rhode Island’s Digital Equity Plan Accepted</t>
+          <t>New Jersey’s Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Digital Equity Plan</t>
+          <t>Digital Equity</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/rhode-islands-digital-equity-plan-accepted</t>
+          <t>https://www.internet4all.gov/news-media/new-jerseys-digital-equity-plan-accepted</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8834,12 +8834,12 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>03/28/2024</t>
+          <t>03/26/2024</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Georgia</t>
+          <t>Rhode Island</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -8849,12 +8849,12 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Georgia's Digital Equity Plan Accepted</t>
+          <t>Rhode Island’s Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>Georgia's Digital Equity Plan Accepted</t>
+          <t>Rhode Island’s Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
@@ -8864,7 +8864,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/georgias-digital-equity-plan-accepted</t>
+          <t>https://www.internet4all.gov/news-media/rhode-islands-digital-equity-plan-accepted</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8889,7 +8889,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Minnesota</t>
+          <t>Oregon</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -8899,12 +8899,12 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Minnesota's Digital Equity Plan Accepted</t>
+          <t>Oregon's Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>Minnesota's Digital Equity Plan Accepted</t>
+          <t>Oregon's Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -8914,7 +8914,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/minnesotas-digital-equity-plan-accepted</t>
+          <t>https://www.internet4all.gov/news-media/oregons-digital-equity-plan-accepted</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8934,12 +8934,12 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>03/28/2024</t>
+          <t>03/26/2024</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Oregon</t>
+          <t>Washington</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -8949,22 +8949,22 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Oregon's Digital Equity Plan Accepted</t>
+          <t>Washington’s Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>Oregon's Digital Equity Plan Accepted</t>
+          <t>Washington’s Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Digital Equity</t>
+          <t>Digital Equity Plan</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/oregons-digital-equity-plan-accepted</t>
+          <t>https://www.internet4all.gov/news-media/washingtons-digital-equity-plan-accepted</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8989,7 +8989,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Kentucky</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -8999,22 +8999,22 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Kentucky’s Digital Equity Plan Accepted</t>
+          <t>New York’s Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>Kentucky’s Digital Equity Plan Accepted</t>
+          <t>New York’s Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Digital Equity Plan</t>
+          <t>Digital Equity</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/kentuckys-digital-equity-plan-accepted</t>
+          <t>https://www.internet4all.gov/news-media/new-yorks-digital-equity-plan-accepted</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -9089,7 +9089,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>New York</t>
+          <t>Indiana</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -9099,22 +9099,22 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>New York’s Digital Equity Plan Accepted</t>
+          <t>Indiana’s Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>New York’s Digital Equity Plan Accepted</t>
+          <t>Indiana’s Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Digital Equity</t>
+          <t>Digital Equity Plan</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/new-yorks-digital-equity-plan-accepted</t>
+          <t>https://www.internet4all.gov/news-media/indianas-digital-equity-plan-accepted</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -9139,7 +9139,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>New Hampshire</t>
+          <t>South Carolina</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -9149,12 +9149,12 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>New Hampshire’s Digital Equity Plan Accepted</t>
+          <t>South Carolina’s Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>New Hampshire’s Digital Equity Plan Accepted</t>
+          <t>South Carolina’s Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -9164,7 +9164,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/new-hampshires-digital-equity-plan-accepted</t>
+          <t>https://www.internet4all.gov/news-media/south-carolinas-digital-equity-plan-accepted</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -9189,7 +9189,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>South Carolina</t>
+          <t>Kentucky</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -9199,22 +9199,22 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>South Carolina’s Digital Equity Plan Accepted</t>
+          <t>Kentucky’s Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>South Carolina’s Digital Equity Plan Accepted</t>
+          <t>Kentucky’s Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Digital Equity</t>
+          <t>Digital Equity Plan</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/south-carolinas-digital-equity-plan-accepted</t>
+          <t>https://www.internet4all.gov/news-media/kentuckys-digital-equity-plan-accepted</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -9239,7 +9239,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Indiana</t>
+          <t>New Hampshire</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -9249,22 +9249,22 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Indiana’s Digital Equity Plan Accepted</t>
+          <t>New Hampshire’s Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>Indiana’s Digital Equity Plan Accepted</t>
+          <t>New Hampshire’s Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Digital Equity Plan</t>
+          <t>Digital Equity</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/indianas-digital-equity-plan-accepted</t>
+          <t>https://www.internet4all.gov/news-media/new-hampshires-digital-equity-plan-accepted</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -9339,7 +9339,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Iowa</t>
+          <t>Mississippi</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -9349,22 +9349,22 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>Iowa’s Digital Equity Plan Accepted</t>
+          <t>Mississippi’s Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>Iowa’s Digital Equity Plan Accepted</t>
+          <t>Mississippi’s Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Digital Equity Plan</t>
+          <t>Digital Equity</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/iowas-digital-equity-plan-accepted</t>
+          <t>https://www.internet4all.gov/news-media/mississippis-digital-equity-plan-accepted</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9389,7 +9389,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Illinois</t>
+          <t>Iowa</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -9399,12 +9399,12 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Illinois’ Digital Equity Plan Accepted</t>
+          <t>Iowa’s Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>Illinois’ Digital Equity Plan Accepted</t>
+          <t>Iowa’s Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -9414,7 +9414,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/illinois-digital-equity-plan-accepted</t>
+          <t>https://www.internet4all.gov/news-media/iowas-digital-equity-plan-accepted</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9439,7 +9439,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Mississippi</t>
+          <t>Colorado</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -9449,22 +9449,22 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>Mississippi’s Digital Equity Plan Accepted</t>
+          <t>Colorado’s Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>Mississippi’s Digital Equity Plan Accepted</t>
+          <t>Colorado’s Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Digital Equity</t>
+          <t>Digital Equity Plan</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/mississippis-digital-equity-plan-accepted</t>
+          <t>https://www.internet4all.gov/news-media/colorados-digital-equity-plan-accepted</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9489,7 +9489,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Colorado</t>
+          <t>Illinois</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -9499,12 +9499,12 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Colorado’s Digital Equity Plan Accepted</t>
+          <t>Illinois’ Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>Colorado’s Digital Equity Plan Accepted</t>
+          <t>Illinois’ Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
@@ -9514,7 +9514,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/colorados-digital-equity-plan-accepted</t>
+          <t>https://www.internet4all.gov/news-media/illinois-digital-equity-plan-accepted</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -10993,42 +10993,38 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Internet for All</t>
+          <t>NTIA</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>07/26/2024</t>
-        </is>
-      </c>
-      <c r="D215" t="inlineStr">
-        <is>
-          <t>New Mexico</t>
-        </is>
-      </c>
+          <t>08/07/2024</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr"/>
       <c r="E215" t="inlineStr">
         <is>
-          <t>08/05/2024</t>
+          <t>08/20/2024</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Approves New Mexico and Virginia’s “Internet for All” Initial Proposal</t>
+          <t>The 2023 Federal Broadband Funding Report</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Approves New Mexico and Virginia’s “Internet for All” Initial Proposal</t>
+          <t>The 2023 Federal Broadband Funding Report</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>internet</t>
+          <t>broadband</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://www.internetforall.gov/news-media/biden-harris-administration-approves-new-mexico-and-virginias-internet-all-initial</t>
+          <t>https://www.ntia.gov/press-release/2024/2023-federal-broadband-funding-report</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -11039,46 +11035,42 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Internet for All</t>
+          <t>NTIA</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>07/26/2024</t>
-        </is>
-      </c>
-      <c r="D216" t="inlineStr">
-        <is>
-          <t>Virginia</t>
-        </is>
-      </c>
+          <t>07/24/2024</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr"/>
       <c r="E216" t="inlineStr">
         <is>
-          <t>08/05/2024</t>
+          <t>08/20/2024</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Approves New Mexico and Virginia’s “Internet for All” Initial Proposal</t>
+          <t>Biden-Harris Administration Opens Applications for $1 Billion Digital Inclusion Grant Program</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Approves New Mexico and Virginia’s “Internet for All” Initial Proposal</t>
+          <t>Biden-Harris Administration Opens Applications for $1 Billion Digital Inclusion Grant Program</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>internet</t>
+          <t>grant</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://www.internetforall.gov/news-media/biden-harris-administration-approves-new-mexico-and-virginias-internet-all-initial</t>
+          <t>https://www.ntia.gov/press-release/2024/biden-harris-administration-opens-applications-1-billion-digital-inclusion-grant-program</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -11089,11 +11081,11 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Internet for All</t>
+          <t>NTIA</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -11108,7 +11100,7 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>08/05/2024</t>
+          <t>08/20/2024</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
@@ -11128,7 +11120,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://www.internetforall.gov/news-media/biden-harris-administration-approves-massachusetts-internet-all-initial-proposal</t>
+          <t>https://www.ntia.gov/press-release/2024/biden-harris-administration-approves-massachusetts-internet-all-initial-proposal</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -11139,42 +11131,46 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Internet for All</t>
+          <t>NTIA</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>07/24/2024</t>
-        </is>
-      </c>
-      <c r="D218" t="inlineStr"/>
+          <t>07/26/2024</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>New Mexico</t>
+        </is>
+      </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>08/05/2024</t>
+          <t>08/20/2024</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Opens Applications for $1 Billion Digital Inclusion Grant Program</t>
+          <t>Biden-Harris Administration Approves New Mexico and Virginia’s “Internet for All” Initial Proposal</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Opens Applications for $1 Billion Digital Inclusion Grant Program</t>
+          <t>Biden-Harris Administration Approves New Mexico and Virginia’s “Internet for All” Initial Proposal</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>grant</t>
+          <t>internet</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://www.internetforall.gov/news-media/biden-harris-administration-opens-applications-1-billion-digital-inclusion-grant-0</t>
+          <t>https://www.ntia.gov/press-release/2024/biden-harris-administration-approves-new-mexico-and-virginia-s-internet-all-initial-proposal</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -11194,27 +11190,27 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>07/22/2024</t>
+          <t>07/26/2024</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Utah</t>
+          <t>Virginia</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>08/05/2024</t>
+          <t>08/20/2024</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Approves Utah, Commonwealth of Northern Mariana Islands, and the U.S. Vi...more</t>
+          <t>Biden-Harris Administration Approves New Mexico and Virginia’s “Internet for All” Initial Proposal</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Approves Utah, Commonwealth of Northern Mariana Islands, and the U.S. Virgin Islands’ “Internet for All” Initial Proposals</t>
+          <t>Biden-Harris Administration Approves New Mexico and Virginia’s “Internet for All” Initial Proposal</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
@@ -11224,7 +11220,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://www.ntia.gov/press-release/2024/biden-harris-administration-approves-utah-commonwealth-northern-mariana-islands-and-us-virgin</t>
+          <t>https://www.ntia.gov/press-release/2024/biden-harris-administration-approves-new-mexico-and-virginia-s-internet-all-initial-proposal</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -11235,7 +11231,7 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
@@ -11244,27 +11240,27 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>07/22/2024</t>
+          <t>08/01/2024</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Virgin Islands</t>
+          <t>Montana</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>08/05/2024</t>
+          <t>08/20/2024</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Approves Utah, Commonwealth of Northern Mariana Islands, and the U.S. Vi...more</t>
+          <t>Biden-Harris Administration Approves Montana, Oklahoma, and Vermont's “Internet for All” Initial Pro...more</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Approves Utah, Commonwealth of Northern Mariana Islands, and the U.S. Virgin Islands’ “Internet for All” Initial Proposals</t>
+          <t>Biden-Harris Administration Approves Montana, Oklahoma, and Vermont's “Internet for All” Initial Proposal</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
@@ -11274,7 +11270,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://www.ntia.gov/press-release/2024/biden-harris-administration-approves-utah-commonwealth-northern-mariana-islands-and-us-virgin</t>
+          <t>https://www.ntia.gov/press-release/2024/biden-harris-administration-approves-montana-oklahoma-and-vermonts-internet-all-initial-proposal</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -11285,7 +11281,7 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
@@ -11294,27 +11290,27 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>07/22/2024</t>
+          <t>08/01/2024</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Northern Mariana Islands</t>
+          <t>Oklahoma</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>08/05/2024</t>
+          <t>08/20/2024</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Approves Utah, Commonwealth of Northern Mariana Islands, and the U.S. Vi...more</t>
+          <t>Biden-Harris Administration Approves Montana, Oklahoma, and Vermont's “Internet for All” Initial Pro...more</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Approves Utah, Commonwealth of Northern Mariana Islands, and the U.S. Virgin Islands’ “Internet for All” Initial Proposals</t>
+          <t>Biden-Harris Administration Approves Montana, Oklahoma, and Vermont's “Internet for All” Initial Proposal</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
@@ -11324,7 +11320,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://www.ntia.gov/press-release/2024/biden-harris-administration-approves-utah-commonwealth-northern-mariana-islands-and-us-virgin</t>
+          <t>https://www.ntia.gov/press-release/2024/biden-harris-administration-approves-montana-oklahoma-and-vermonts-internet-all-initial-proposal</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -11344,27 +11340,27 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>07/18/2024</t>
+          <t>08/01/2024</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Connecticut</t>
+          <t>Vermont</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>08/05/2024</t>
+          <t>08/20/2024</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Approves Connecticut’s “Internet for All” Initial Proposal</t>
+          <t>Biden-Harris Administration Approves Montana, Oklahoma, and Vermont's “Internet for All” Initial Pro...more</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Approves Connecticut’s “Internet for All” Initial Proposal</t>
+          <t>Biden-Harris Administration Approves Montana, Oklahoma, and Vermont's “Internet for All” Initial Proposal</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
@@ -11374,7 +11370,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://www.ntia.gov/press-release/2024/biden-harris-administration-approves-connecticut-s-internet-all-initial-proposal</t>
+          <t>https://www.ntia.gov/press-release/2024/biden-harris-administration-approves-montana-oklahoma-and-vermonts-internet-all-initial-proposal</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11394,23 +11390,27 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>07/18/2024</t>
-        </is>
-      </c>
-      <c r="D223" t="inlineStr"/>
+          <t>08/02/2024</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>Missouri</t>
+        </is>
+      </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>08/05/2024</t>
+          <t>08/20/2024</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>NTIA Supports FCC Internet Routing Security Proposal</t>
+          <t>Biden-Harris Administration Approves Missouri and Tennessee’s “Internet for All” Initial Proposal</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>NTIA Supports FCC Internet Routing Security Proposal</t>
+          <t>Biden-Harris Administration Approves Missouri and Tennessee’s “Internet for All” Initial Proposal</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
@@ -11420,7 +11420,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://www.ntia.gov/press-release/2024/ntia-supports-fcc-internet-routing-security-proposal</t>
+          <t>https://www.ntia.gov/press-release/2024/biden-harris-administration-approves-missouri-and-tennessee-s-internet-all-initial-proposal</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11431,7 +11431,7 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
@@ -11440,27 +11440,27 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>07/17/2024</t>
+          <t>08/02/2024</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Rhode Island</t>
+          <t>Tennessee</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>08/05/2024</t>
+          <t>08/20/2024</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Approves Rhode Island’s “Internet for All” Initial Proposal</t>
+          <t>Biden-Harris Administration Approves Missouri and Tennessee’s “Internet for All” Initial Proposal</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Approves Rhode Island’s “Internet for All” Initial Proposal</t>
+          <t>Biden-Harris Administration Approves Missouri and Tennessee’s “Internet for All” Initial Proposal</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
@@ -11470,7 +11470,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://www.ntia.gov/press-release/2024/biden-harris-administration-approves-rhode-island-s-internet-all-initial-proposal</t>
+          <t>https://www.ntia.gov/press-release/2024/biden-harris-administration-approves-missouri-and-tennessee-s-internet-all-initial-proposal</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11481,7 +11481,7 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
@@ -11490,27 +11490,27 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>07/16/2024</t>
+          <t>08/05/2024</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Hawaii</t>
+          <t>Arizona</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>08/05/2024</t>
+          <t>08/20/2024</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Approves Hawaii’s “Internet for All” Initial Proposal</t>
+          <t>Biden-Harris Administration Approves Arizona's “Internet for All” Initial Proposal</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Approves Hawaii’s “Internet for All” Initial Proposal</t>
+          <t>Biden-Harris Administration Approves Arizona's “Internet for All” Initial Proposal</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
@@ -11520,7 +11520,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://www.ntia.gov/press-release/2024/biden-harris-administration-approves-hawaii-s-internet-all-initial-proposal</t>
+          <t>https://www.ntia.gov/press-release/2024/biden-harris-administration-approves-arizonas-internet-all-initial-proposal</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11531,36 +11531,36 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Internet for All</t>
+          <t>NTIA</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>08/02/2024</t>
+          <t>08/06/2024</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Missouri</t>
+          <t>Wisconsin</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>08/05/2024</t>
+          <t>08/20/2024</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Approves Missouri and Tennessee’s “Internet for All” Initial Proposal</t>
+          <t>Biden-Harris Administration Approves Wisconsin’s “Internet for All” Initial Proposal</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Approves Missouri and Tennessee’s “Internet for All” Initial Proposal</t>
+          <t>Biden-Harris Administration Approves Wisconsin’s “Internet for All” Initial Proposal</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
@@ -11570,7 +11570,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://www.internetforall.gov/news-media/biden-harris-administration-approves-missouri-and-tennessees-internet-all-initial</t>
+          <t>https://www.ntia.gov/press-release/2024/biden-harris-administration-approves-wisconsin-s-internet-all-initial-proposal</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11585,32 +11585,32 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Internet for All</t>
+          <t>NTIA</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>08/02/2024</t>
+          <t>07/18/2024</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Tennessee</t>
+          <t>Connecticut</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>08/05/2024</t>
+          <t>08/20/2024</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Approves Missouri and Tennessee’s “Internet for All” Initial Proposal</t>
+          <t>Biden-Harris Administration Approves Connecticut’s “Internet for All” Initial Proposal</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Approves Missouri and Tennessee’s “Internet for All” Initial Proposal</t>
+          <t>Biden-Harris Administration Approves Connecticut’s “Internet for All” Initial Proposal</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
@@ -11620,7 +11620,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://www.internetforall.gov/news-media/biden-harris-administration-approves-missouri-and-tennessees-internet-all-initial</t>
+          <t>https://www.ntia.gov/press-release/2024/biden-harris-administration-approves-connecticut-s-internet-all-initial-proposal</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11635,32 +11635,32 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Internet for All</t>
+          <t>NTIA</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>08/01/2024</t>
+          <t>08/13/2024</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Montana</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>08/05/2024</t>
+          <t>08/20/2024</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Approves Montana, Oklahoma, and Vermont's “Internet for All” Initial Pro...more</t>
+          <t>Biden-Harris Administration Approves New York’s “Internet for All” Initial Proposal</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Approves Montana, Oklahoma, and Vermont's “Internet for All” Initial Proposal</t>
+          <t>Biden-Harris Administration Approves New York’s “Internet for All” Initial Proposal</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
@@ -11670,7 +11670,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://www.internetforall.gov/news-media/biden-harris-administration-approves-montana-oklahoma-and-vermonts-internet-all-initial</t>
+          <t>https://www.ntia.gov/press-release/2024/biden-harris-administration-approves-new-york-s-internet-all-initial-proposal</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11681,36 +11681,32 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Internet for All</t>
+          <t>NTIA</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>08/01/2024</t>
-        </is>
-      </c>
-      <c r="D229" t="inlineStr">
-        <is>
-          <t>Oklahoma</t>
-        </is>
-      </c>
+          <t>07/18/2024</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr"/>
       <c r="E229" t="inlineStr">
         <is>
-          <t>08/05/2024</t>
+          <t>08/20/2024</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Approves Montana, Oklahoma, and Vermont's “Internet for All” Initial Pro...more</t>
+          <t>NTIA Supports FCC Internet Routing Security Proposal</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Approves Montana, Oklahoma, and Vermont's “Internet for All” Initial Proposal</t>
+          <t>NTIA Supports FCC Internet Routing Security Proposal</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
@@ -11720,7 +11716,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://www.internetforall.gov/news-media/biden-harris-administration-approves-montana-oklahoma-and-vermonts-internet-all-initial</t>
+          <t>https://www.ntia.gov/press-release/2024/ntia-supports-fcc-internet-routing-security-proposal</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11731,36 +11727,36 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Internet for All</t>
+          <t>NTIA</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>08/01/2024</t>
+          <t>07/17/2024</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Vermont</t>
+          <t>Rhode Island</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>08/05/2024</t>
+          <t>08/20/2024</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Approves Montana, Oklahoma, and Vermont's “Internet for All” Initial Pro...more</t>
+          <t>Biden-Harris Administration Approves Rhode Island’s “Internet for All” Initial Proposal</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Approves Montana, Oklahoma, and Vermont's “Internet for All” Initial Proposal</t>
+          <t>Biden-Harris Administration Approves Rhode Island’s “Internet for All” Initial Proposal</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
@@ -11770,7 +11766,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://www.internetforall.gov/news-media/biden-harris-administration-approves-montana-oklahoma-and-vermonts-internet-all-initial</t>
+          <t>https://www.ntia.gov/press-release/2024/biden-harris-administration-approves-rhode-island-s-internet-all-initial-proposal</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11781,7 +11777,7 @@
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
@@ -11790,27 +11786,27 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>07/08/2024</t>
+          <t>07/16/2024</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Indiana</t>
+          <t>Hawaii</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>09/07/2024</t>
+          <t>08/20/2024</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Approves Indiana’s “Internet for All” Initial Proposal</t>
+          <t>Biden-Harris Administration Approves Hawaii’s “Internet for All” Initial Proposal</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Approves Indiana’s “Internet for All” Initial Proposal</t>
+          <t>Biden-Harris Administration Approves Hawaii’s “Internet for All” Initial Proposal</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
@@ -11820,108 +11816,696 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://www.ntia.gov/press-release/2024/biden-harris-administration-approves-indiana-s-internet-all-initial-proposal</t>
+          <t>https://www.ntia.gov/press-release/2024/biden-harris-administration-approves-hawaii-s-internet-all-initial-proposal</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>Relevant</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>NCTA</t>
+          <t>NTIA</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>07/10/2024</t>
-        </is>
-      </c>
-      <c r="D232" t="inlineStr"/>
+          <t>07/22/2024</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>Utah</t>
+        </is>
+      </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>11/07/2024</t>
+          <t>08/20/2024</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>America’s Expanding Broadband Networks Continue to Grow: The Northeast Pt. 2</t>
+          <t>Biden-Harris Administration Approves Utah, Commonwealth of Northern Mariana Islands, and the U.S. Vi...more</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>America’s Expanding Broadband Networks Continue to Grow: The Northeast Pt. 2</t>
+          <t>Biden-Harris Administration Approves Utah, Commonwealth of Northern Mariana Islands, and the U.S. Virgin Islands’ “Internet for All” Initial Proposals</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>broadband</t>
+          <t>internet</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://www.ncta.com/whats-new/americas-expanding-broadband-networks-continue-grow-the-northeast-pt-2</t>
+          <t>https://www.ntia.gov/press-release/2024/biden-harris-administration-approves-utah-commonwealth-northern-mariana-islands-and-us-virgin</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>Relevant</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Internet for All</t>
+          <t>NTIA</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
+          <t>07/22/2024</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>Virgin Islands</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>08/20/2024</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>Biden-Harris Administration Approves Utah, Commonwealth of Northern Mariana Islands, and the U.S. Vi...more</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>Biden-Harris Administration Approves Utah, Commonwealth of Northern Mariana Islands, and the U.S. Virgin Islands’ “Internet for All” Initial Proposals</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>internet</t>
+        </is>
+      </c>
+      <c r="I233" t="inlineStr">
+        <is>
+          <t>https://www.ntia.gov/press-release/2024/biden-harris-administration-approves-utah-commonwealth-northern-mariana-islands-and-us-virgin</t>
+        </is>
+      </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>208</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>NTIA</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>07/22/2024</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>Northern Mariana Islands</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>08/20/2024</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>Biden-Harris Administration Approves Utah, Commonwealth of Northern Mariana Islands, and the U.S. Vi...more</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>Biden-Harris Administration Approves Utah, Commonwealth of Northern Mariana Islands, and the U.S. Virgin Islands’ “Internet for All” Initial Proposals</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>internet</t>
+        </is>
+      </c>
+      <c r="I234" t="inlineStr">
+        <is>
+          <t>https://www.ntia.gov/press-release/2024/biden-harris-administration-approves-utah-commonwealth-northern-mariana-islands-and-us-virgin</t>
+        </is>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>209</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>NTIA</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>08/08/2024</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>Wyoming</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>08/20/2024</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>Biden-Harris Administration Approves Wyoming’s “Internet for All” Initial Proposal</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>Biden-Harris Administration Approves Wyoming’s “Internet for All” Initial Proposal</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>internet</t>
+        </is>
+      </c>
+      <c r="I235" t="inlineStr">
+        <is>
+          <t>https://www.ntia.gov/press-release/2024/biden-harris-administration-approves-wyoming-s-internet-all-initial-proposal</t>
+        </is>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>210</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>NTIA</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>07/08/2024</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>Indiana</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>09/07/2024</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>Biden-Harris Administration Approves Indiana’s “Internet for All” Initial Proposal</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>Biden-Harris Administration Approves Indiana’s “Internet for All” Initial Proposal</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>internet</t>
+        </is>
+      </c>
+      <c r="I236" t="inlineStr">
+        <is>
+          <t>https://www.ntia.gov/press-release/2024/biden-harris-administration-approves-indiana-s-internet-all-initial-proposal</t>
+        </is>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>Relevant</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>211</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>NCTA</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
           <t>07/10/2024</t>
         </is>
       </c>
-      <c r="D233" t="inlineStr">
+      <c r="D237" t="inlineStr"/>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>11/07/2024</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>America’s Expanding Broadband Networks Continue to Grow: The Northeast Pt. 2</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>America’s Expanding Broadband Networks Continue to Grow: The Northeast Pt. 2</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>broadband</t>
+        </is>
+      </c>
+      <c r="I237" t="inlineStr">
+        <is>
+          <t>https://www.ncta.com/whats-new/americas-expanding-broadband-networks-continue-grow-the-northeast-pt-2</t>
+        </is>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>Relevant</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>212</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Internet for All</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>07/10/2024</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
         <is>
           <t>Maryland</t>
         </is>
       </c>
-      <c r="E233" t="inlineStr">
+      <c r="E238" t="inlineStr">
         <is>
           <t>11/07/2024</t>
         </is>
       </c>
-      <c r="F233" t="inlineStr">
+      <c r="F238" t="inlineStr">
         <is>
           <t>Biden-Harris Administration Approves Maryland’s “Internet for All” Initial Proposal</t>
         </is>
       </c>
-      <c r="G233" t="inlineStr">
+      <c r="G238" t="inlineStr">
         <is>
           <t>Biden-Harris Administration Approves Maryland’s “Internet for All” Initial Proposal</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>internet</t>
-        </is>
-      </c>
-      <c r="I233" t="inlineStr">
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>internet</t>
+        </is>
+      </c>
+      <c r="I238" t="inlineStr">
         <is>
           <t>https://www.internetforall.gov/news-media/biden-harris-administration-approves-marylands-internet-all-initial-proposal</t>
         </is>
       </c>
-      <c r="J233" t="inlineStr">
-        <is>
-          <t>Relevant</t>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>Relevant</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>213</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>DOC</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>01/14/2025</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr"/>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>01/20/2025</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>Biden-Harris Administration Awards Additional $210 Million Tech Hub Grants</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>Biden-Harris Administration Awards Additional $210 Million Tech Hub Grants</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>grant</t>
+        </is>
+      </c>
+      <c r="I239" t="inlineStr">
+        <is>
+          <t>https://www.commerce.gov/news/press-releases/2025/01/biden-harris-administration-awards-additional-210-million-tech-hub</t>
+        </is>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>214</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>NCTA</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>01/21/2025</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr"/>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>01/24/2025</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>Broadband Stats: A Smart Spectrum Strategy</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>Broadband Stats: A Smart Spectrum Strategy</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>broadband</t>
+        </is>
+      </c>
+      <c r="I240" t="inlineStr">
+        <is>
+          <t>https://www.ncta.com/whats-new/broadband-stats-a-smart-spectrum-strategy</t>
+        </is>
+      </c>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>215</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Internet for All</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>01/14/2025</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>Delaware</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>01/24/2025</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>Biden-Harris Administration Approves Delaware's “Internet for All” Final Proposal</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>Biden-Harris Administration Approves Delaware's “Internet for All” Final Proposal</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>internet</t>
+        </is>
+      </c>
+      <c r="I241" t="inlineStr">
+        <is>
+          <t>https://www.internetforall.gov/news-media/biden-harris-administration-approves-delawares-internet-all-final-proposal</t>
+        </is>
+      </c>
+      <c r="J241" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>216</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Internet for All</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>01/16/2025</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>Tribal</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>01/24/2025</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>Biden-Harris Administration Recommends for Award More Than $162 Million to Expand Internet Use on Tr...more</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>Biden-Harris Administration Recommends for Award More Than $162 Million to Expand Internet Use on Tribal Lands</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>internet</t>
+        </is>
+      </c>
+      <c r="I242" t="inlineStr">
+        <is>
+          <t>https://www.internetforall.gov/news-media/biden-harris-administration-recommends-award-more-162-million-expand-internet-use-tribal</t>
+        </is>
+      </c>
+      <c r="J242" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>217</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Internet for All</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>01/17/2025</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>Nevada</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>01/24/2025</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>Biden-Harris Administration Approves Nevada’s “Internet for All” Final Proposal</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>Biden-Harris Administration Approves Nevada’s “Internet for All” Final Proposal</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>internet</t>
+        </is>
+      </c>
+      <c r="I243" t="inlineStr">
+        <is>
+          <t>https://www.internetforall.gov/news-media/biden-harris-administration-approves-nevadas-internet-all-final-proposal</t>
+        </is>
+      </c>
+      <c r="J243" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>218</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Internet for All</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>01/13/2025</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>Louisiana</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>01/24/2025</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>Biden-Harris Administration Approves Louisiana’s “Internet for All” Final Proposal</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>Biden-Harris Administration Approves Louisiana’s “Internet for All” Final Proposal</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>internet</t>
+        </is>
+      </c>
+      <c r="I244" t="inlineStr">
+        <is>
+          <t>https://www.internetforall.gov/news-media/biden-harris-administration-approves-louisianas-internet-all-final-proposal</t>
+        </is>
+      </c>
+      <c r="J244" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>219</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>NCTA</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>01/16/2025</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr"/>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>01/24/2025</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>WATCH: A Year of Impact for Broadband and TV</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>WATCH: A Year of Impact for Broadband and TV</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>broadband</t>
+        </is>
+      </c>
+      <c r="I245" t="inlineStr">
+        <is>
+          <t>https://www.ncta.com/whats-new/watch-a-year-of-impact-for-broadband-and-tv</t>
+        </is>
+      </c>
+      <c r="J245" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
